--- a/Initialization/schemas/Final_Goods_Market_schema.xlsx
+++ b/Initialization/schemas/Final_Goods_Market_schema.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MiniACE\Initialization\schemas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="10650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Final_Goods_Market" sheetId="1" r:id="rId1"/>
     <sheet name="Final_Goods_Market.xml" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,26 +24,29 @@
   <connection id="1" name="Final_Goods_Market" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Final_Goods_Market.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Firm" type="4" refreshedVersion="0" background="1">
+  <connection id="2" name="Final_Goods_Market1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Final_Goods_Market.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="Firm" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="Firm1" type="4" refreshedVersion="0" background="1">
+  <connection id="4" name="Firm1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="Firm2" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="Firm2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="Firm3" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="Firm3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="Firm4" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="Firm4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -102,16 +100,19 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,25 +179,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,21 +240,78 @@
 </styleSheet>
 </file>
 
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="states">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="xagent" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="region_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="gov_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="final_goods_list" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="final_goods_orders_list" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="daily_sold_quantity" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="daily_market_turnover" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_sold_quantity" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_market_turnover" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="initialization" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="states_Map" RootElement="states" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:K2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K2" tableType="xml" totalsRowShown="0" connectionId="2">
   <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="id"/>
-    <tableColumn id="3" name="region_id"/>
-    <tableColumn id="4" name="gov_id"/>
-    <tableColumn id="5" name="final_goods_list"/>
-    <tableColumn id="6" name="final_goods_orders_list"/>
-    <tableColumn id="7" name="daily_sold_quantity" dataDxfId="4"/>
-    <tableColumn id="8" name="daily_market_turnover" dataDxfId="3"/>
-    <tableColumn id="9" name="monthly_sold_quantity" dataDxfId="2"/>
-    <tableColumn id="10" name="monthly_market_turnover" dataDxfId="1"/>
-    <tableColumn id="11" name="initialization" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="name" name="name" dataDxfId="10">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="id" name="id" dataDxfId="9">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="region_id" name="region_id" dataDxfId="8">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/region_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="gov_id" name="gov_id" dataDxfId="7">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/gov_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="final_goods_list" name="final_goods_list" dataDxfId="6">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/final_goods_list" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="final_goods_orders_list" name="final_goods_orders_list" dataDxfId="5">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/final_goods_orders_list" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="daily_sold_quantity" name="daily_sold_quantity" dataDxfId="4">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/daily_sold_quantity" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="daily_market_turnover" name="daily_market_turnover" dataDxfId="3">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/daily_market_turnover" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="monthly_sold_quantity" name="monthly_sold_quantity" dataDxfId="2">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_sold_quantity" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="monthly_market_turnover" name="monthly_market_turnover" dataDxfId="1">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_market_turnover" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="initialization" name="initialization" dataDxfId="0">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/initialization" xmlDataType="string"/>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -283,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -318,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -495,21 +572,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -521,7 +598,7 @@
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -556,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -591,38 +668,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9">
         <v>1</v>
       </c>
     </row>
@@ -633,20 +710,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="12" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="9" width="12" customWidth="1"/>
     <col min="10" max="64" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -681,38 +759,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:64">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="G2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="9">
         <v>1</v>
       </c>
       <c r="L2" s="3"/>
@@ -765,7 +843,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64">
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -819,7 +897,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -873,7 +951,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64">
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -927,7 +1005,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64">
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -981,7 +1059,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64">
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
